--- a/VRPSTW_V1/resultats.xlsx
+++ b/VRPSTW_V1/resultats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Cplex\VRPSTW_V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Cplex\AMC-PTUT\VRPSTW_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAC32EE-41E8-4237-8852-E8D4A474052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BAA3A5-11AD-418B-AE9E-B47F7DEC77F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{0D4A7571-2273-405D-89E1-DA979255245D}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{0D4A7571-2273-405D-89E1-DA979255245D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>40</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>13</v>
@@ -557,13 +557,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1">
         <v>40</v>
@@ -572,27 +572,27 @@
         <v>60</v>
       </c>
       <c r="I3" s="1">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>40</v>
@@ -601,27 +601,27 @@
         <v>60</v>
       </c>
       <c r="I4" s="1">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1">
         <v>40</v>
@@ -630,7 +630,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="1">
-        <v>98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -638,19 +638,19 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1">
         <v>60</v>
       </c>
       <c r="F6" s="1">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1">
         <v>40</v>
@@ -659,7 +659,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <v>40</v>
@@ -693,22 +693,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1">
         <v>40</v>
@@ -717,12 +717,12 @@
         <v>60</v>
       </c>
       <c r="I8" s="1">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -731,10 +731,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -746,27 +746,27 @@
         <v>60</v>
       </c>
       <c r="I9" s="1">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1">
         <v>40</v>
@@ -775,27 +775,27 @@
         <v>60</v>
       </c>
       <c r="I10" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1">
         <v>40</v>
@@ -804,7 +804,7 @@
         <v>60</v>
       </c>
       <c r="I11" s="1">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
         <v>45</v>
@@ -841,19 +841,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
         <v>45</v>
       </c>
       <c r="F13" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1">
         <v>45</v>
@@ -870,19 +870,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1">
         <v>88</v>
       </c>
       <c r="F14" s="1">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
         <v>45</v>
@@ -899,19 +899,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1">
         <v>67</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G15" s="1">
         <v>45</v>
@@ -920,27 +920,27 @@
         <v>65</v>
       </c>
       <c r="I15" s="1">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1">
         <v>45</v>
@@ -949,7 +949,7 @@
         <v>65</v>
       </c>
       <c r="I16" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>55</v>
@@ -983,22 +983,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G18" s="1">
         <v>55</v>
@@ -1007,7 +1007,7 @@
         <v>70</v>
       </c>
       <c r="I18" s="1">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1021,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -1041,22 +1041,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1">
         <v>55</v>
@@ -1065,7 +1065,7 @@
         <v>70</v>
       </c>
       <c r="I20" s="1">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1073,19 +1073,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
       <c r="F21" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1">
         <v>55</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G22" s="1">
         <v>35</v>
@@ -1131,19 +1131,19 @@
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1">
         <v>26</v>
       </c>
       <c r="F23" s="1">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G23" s="1">
         <v>35</v>
@@ -1157,22 +1157,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G24" s="1">
         <v>35</v>
@@ -1181,27 +1181,27 @@
         <v>55</v>
       </c>
       <c r="I24" s="1">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="1">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F25" s="1">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="G25" s="1">
         <v>35</v>
@@ -1210,27 +1210,27 @@
         <v>55</v>
       </c>
       <c r="I25" s="1">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G26" s="1">
         <v>35</v>
@@ -1239,13 +1239,12 @@
         <v>55</v>
       </c>
       <c r="I26" s="1">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I26">
-    <sortCondition ref="C2:C26"/>
-    <sortCondition ref="D2:D26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:I26">
+    <sortCondition ref="D23:D26"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
